--- a/1．外部設計/設計書テンプレート/【内設】画面処理設計_Sample.xlsx
+++ b/1．外部設計/設計書テンプレート/【内設】画面処理設計_Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\somu\Desktop\Kitamura\06_新人研修\2022年度\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EDE676-839D-45F9-9FFF-1F0BEED001A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF04546-C914-4D53-9CC1-0AC550395D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{25252161-8D72-4EB1-AB8F-D7D48CB1C876}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{25252161-8D72-4EB1-AB8F-D7D48CB1C876}"/>
   </bookViews>
   <sheets>
     <sheet name="XXX01" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -709,6 +709,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -719,16 +731,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,13 +769,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -775,44 +802,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,14 +829,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B3AADA-A29E-43AB-9F73-12666C6D9B98}">
   <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
@@ -1365,162 +1365,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="24" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="24" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="24" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="24" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="24" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="24" t="s">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
@@ -1560,42 +1560,45 @@
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="23" t="str">
+        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1)) + 1,LEN(CELL("filename",A1)))</f>
+        <v>XXX01</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
       <c r="AH6" s="7"/>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2000,7 +2003,7 @@
     </row>
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="49"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2037,114 +2040,114 @@
     <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="51" t="s">
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="51" t="s">
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="I21" s="50" t="str">
+      <c r="I21" s="22" t="str">
         <f>IF(N19="サーバー", "InputBean","メソッド名")</f>
         <v>メソッド名</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
     </row>
     <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="I22" s="50" t="str">
+      <c r="I22" s="22" t="str">
         <f>IF(N19="サーバー", "OutputBean","引数")</f>
         <v>引数</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="51" t="s">
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
     </row>
@@ -2157,11 +2160,11 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -2186,44 +2189,44 @@
     </row>
     <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="20" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="20" t="s">
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="22"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="26"/>
       <c r="AH24" s="7"/>
     </row>
     <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2660,7 +2663,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="49"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2697,114 +2700,114 @@
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51" t="s">
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="51" t="s">
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="I40" s="50" t="str">
+      <c r="I40" s="22" t="str">
         <f>IF(N38="サーバー", "InputBean","メソッド名")</f>
         <v>InputBean</v>
       </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="51" t="s">
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="I41" s="50" t="str">
+      <c r="I41" s="22" t="str">
         <f>IF(N38="サーバー", "OutputBean","引数")</f>
         <v>OutputBean</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="51" t="s">
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
     </row>
@@ -2817,11 +2820,11 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
@@ -2846,44 +2849,44 @@
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="20" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="20" t="s">
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="22"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="26"/>
       <c r="AH43" s="7"/>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3044,34 +3047,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:Z22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:Z24"/>
-    <mergeCell ref="AA24:AG24"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="N20:Z20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="N21:Z21"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:Z41"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="I43:Z43"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="N38:Z38"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:Z39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:Z40"/>
-    <mergeCell ref="Q1:AH1"/>
-    <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="Q4:W4"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AH3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="M6:P6"/>
@@ -3082,7 +3057,35 @@
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q2:AH2"/>
+    <mergeCell ref="Q1:AH1"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AH3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="N38:Z38"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="N39:Z39"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="N40:Z40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="N41:Z41"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="I43:Z43"/>
+    <mergeCell ref="AA43:AG43"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="N20:Z20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="N21:Z21"/>
     <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:Z22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:Z24"/>
+    <mergeCell ref="AA24:AG24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3110,162 +3113,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="24" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="24" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="24" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="24" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="24" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="24" t="s">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
@@ -3305,42 +3308,45 @@
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="23" t="str">
+        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1)) + 1,LEN(CELL("filename",A1)))</f>
+        <v>XXX02</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
       <c r="AH6" s="7"/>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3745,7 +3751,7 @@
     </row>
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="49"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3782,114 +3788,114 @@
     <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="51" t="s">
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="51" t="s">
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
       <c r="AG20" s="7"/>
       <c r="AH20" s="7"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="I21" s="50" t="str">
+      <c r="I21" s="22" t="str">
         <f>IF(N19="サーバー", "InputBean","メソッド名")</f>
         <v>メソッド名</v>
       </c>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
       <c r="AG21" s="7"/>
       <c r="AH21" s="7"/>
     </row>
     <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="I22" s="50" t="str">
+      <c r="I22" s="22" t="str">
         <f>IF(N19="サーバー", "OutputBean","引数")</f>
         <v>引数</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="51" t="s">
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
       <c r="AG22" s="7"/>
       <c r="AH22" s="7"/>
     </row>
@@ -3902,11 +3908,11 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -3931,44 +3937,44 @@
     </row>
     <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="20" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="20" t="s">
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="22"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="26"/>
       <c r="AH24" s="7"/>
     </row>
     <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4405,7 +4411,7 @@
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="49"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -4442,114 +4448,114 @@
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51" t="s">
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
       <c r="AG38" s="7"/>
       <c r="AH38" s="7"/>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="I39" s="50" t="s">
+      <c r="I39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="51" t="s">
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
       <c r="AG39" s="7"/>
       <c r="AH39" s="7"/>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="I40" s="50" t="str">
+      <c r="I40" s="22" t="str">
         <f>IF(N38="サーバー", "InputBean","メソッド名")</f>
         <v>InputBean</v>
       </c>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="51" t="s">
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="I41" s="50" t="str">
+      <c r="I41" s="22" t="str">
         <f>IF(N38="サーバー", "OutputBean","引数")</f>
         <v>OutputBean</v>
       </c>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="51" t="s">
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
       <c r="AG41" s="7"/>
       <c r="AH41" s="7"/>
     </row>
@@ -4562,11 +4568,11 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
@@ -4591,44 +4597,44 @@
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="20" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="20" t="s">
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="22"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+      <c r="AF43" s="25"/>
+      <c r="AG43" s="26"/>
       <c r="AH43" s="7"/>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -4789,28 +4795,7 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="N41:Z41"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="I43:Z43"/>
-    <mergeCell ref="AA43:AG43"/>
-    <mergeCell ref="I38:M38"/>
-    <mergeCell ref="N38:Z38"/>
-    <mergeCell ref="I39:M39"/>
-    <mergeCell ref="N39:Z39"/>
-    <mergeCell ref="I40:M40"/>
-    <mergeCell ref="N40:Z40"/>
-    <mergeCell ref="I22:M22"/>
-    <mergeCell ref="N22:Z22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:Z24"/>
-    <mergeCell ref="AA24:AG24"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="N20:Z20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="N21:Z21"/>
+    <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="X4:AA4"/>
@@ -4827,7 +4812,28 @@
     <mergeCell ref="Q2:AH2"/>
     <mergeCell ref="Q1:AH1"/>
     <mergeCell ref="Q3:W3"/>
-    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="N20:Z20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="N21:Z21"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="N22:Z22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:Z24"/>
+    <mergeCell ref="AA24:AG24"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="N38:Z38"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="N39:Z39"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="N40:Z40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="N41:Z41"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="I43:Z43"/>
+    <mergeCell ref="AA43:AG43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4855,162 +4861,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="24" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="24" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="24" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="24" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="24" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="24" t="s">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
@@ -5088,40 +5094,40 @@
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="36" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="38"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="53"/>
       <c r="AH7" s="7"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5166,12 +5172,12 @@
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
@@ -5183,12 +5189,12 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
@@ -5202,12 +5208,12 @@
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5219,12 +5225,12 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
@@ -5238,12 +5244,12 @@
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="8" t="s">
         <v>19</v>
       </c>
@@ -5255,12 +5261,12 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
@@ -5274,14 +5280,14 @@
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="12" t="s">
         <v>20</v>
       </c>
@@ -5331,25 +5337,25 @@
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
-      <c r="R13" s="44" t="s">
+      <c r="R13" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="36" t="s">
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="38"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="53"/>
       <c r="AH13" s="7"/>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5395,11 +5401,11 @@
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="8" t="s">
         <v>32</v>
       </c>
@@ -5449,25 +5455,25 @@
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="36" t="s">
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="38"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="53"/>
       <c r="AH16" s="7"/>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5513,11 +5519,11 @@
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="8" t="s">
         <v>32</v>
       </c>
@@ -5584,12 +5590,12 @@
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -5693,40 +5699,40 @@
     <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="36" t="s">
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
-      <c r="AA23" s="37"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="38"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="53"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="7"/>
     </row>
@@ -5777,12 +5783,12 @@
     <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="5" t="s">
         <v>19</v>
       </c>
@@ -5794,12 +5800,12 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
       <c r="X25" s="5" t="s">
         <v>39</v>
       </c>
@@ -5817,12 +5823,12 @@
     <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="5" t="s">
         <v>19</v>
       </c>
@@ -5834,12 +5840,12 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
       <c r="X26" s="5" t="s">
         <v>39</v>
       </c>
@@ -5857,12 +5863,12 @@
     <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="8" t="s">
         <v>19</v>
       </c>
@@ -5874,12 +5880,12 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
       <c r="X27" s="8" t="s">
         <v>39</v>
       </c>
@@ -5897,14 +5903,14 @@
     <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
       <c r="I28" s="12" t="s">
         <v>20</v>
       </c>
@@ -5956,25 +5962,25 @@
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="44" t="s">
+      <c r="R29" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="36" t="s">
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="38"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="52"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="52"/>
+      <c r="AC29" s="52"/>
+      <c r="AD29" s="52"/>
+      <c r="AE29" s="52"/>
+      <c r="AF29" s="53"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="7"/>
     </row>
@@ -6024,11 +6030,11 @@
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="8" t="s">
         <v>32</v>
       </c>
@@ -6080,25 +6086,25 @@
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="44" t="s">
+      <c r="R32" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="36" t="s">
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="38"/>
+      <c r="Y32" s="52"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="52"/>
+      <c r="AC32" s="52"/>
+      <c r="AD32" s="52"/>
+      <c r="AE32" s="52"/>
+      <c r="AF32" s="53"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="7"/>
     </row>
@@ -6148,11 +6154,11 @@
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
       <c r="I34" s="8" t="s">
         <v>32</v>
       </c>
@@ -6223,12 +6229,12 @@
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="8"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -6333,40 +6339,40 @@
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="36" t="s">
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="37"/>
-      <c r="AE39" s="37"/>
-      <c r="AF39" s="38"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="53"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="7"/>
     </row>
@@ -6417,12 +6423,12 @@
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
       <c r="I41" s="5" t="s">
         <v>19</v>
       </c>
@@ -6434,12 +6440,12 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
       <c r="X41" s="5" t="s">
         <v>39</v>
       </c>
@@ -6457,12 +6463,12 @@
     <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="5" t="s">
         <v>19</v>
       </c>
@@ -6474,12 +6480,12 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
       <c r="X42" s="5" t="s">
         <v>39</v>
       </c>
@@ -6497,12 +6503,12 @@
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
       <c r="I43" s="8" t="s">
         <v>19</v>
       </c>
@@ -6514,12 +6520,12 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
       <c r="X43" s="8" t="s">
         <v>39</v>
       </c>
@@ -6537,14 +6543,14 @@
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
       <c r="I44" s="12" t="s">
         <v>20</v>
       </c>
@@ -6596,25 +6602,25 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
-      <c r="R45" s="44" t="s">
+      <c r="R45" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="36" t="s">
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
-      <c r="AA45" s="37"/>
-      <c r="AB45" s="37"/>
-      <c r="AC45" s="37"/>
-      <c r="AD45" s="37"/>
-      <c r="AE45" s="37"/>
-      <c r="AF45" s="38"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+      <c r="AC45" s="52"/>
+      <c r="AD45" s="52"/>
+      <c r="AE45" s="52"/>
+      <c r="AF45" s="53"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="7"/>
     </row>
@@ -6664,11 +6670,11 @@
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="41"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
       <c r="I47" s="8" t="s">
         <v>32</v>
       </c>
@@ -6720,25 +6726,25 @@
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="44" t="s">
+      <c r="R48" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="36" t="s">
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
-      <c r="AA48" s="37"/>
-      <c r="AB48" s="37"/>
-      <c r="AC48" s="37"/>
-      <c r="AD48" s="37"/>
-      <c r="AE48" s="37"/>
-      <c r="AF48" s="38"/>
+      <c r="Y48" s="52"/>
+      <c r="Z48" s="52"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="52"/>
+      <c r="AF48" s="53"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="7"/>
     </row>
@@ -6788,11 +6794,11 @@
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="15"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
       <c r="I50" s="8" t="s">
         <v>32</v>
       </c>
@@ -6863,12 +6869,12 @@
     <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
       <c r="I52" s="8"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -6973,40 +6979,40 @@
     <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="36" t="s">
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37"/>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37"/>
-      <c r="AE55" s="37"/>
-      <c r="AF55" s="38"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
+      <c r="Z55" s="52"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="53"/>
       <c r="AG55" s="6"/>
       <c r="AH55" s="7"/>
     </row>
@@ -7055,12 +7061,12 @@
     <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
       <c r="I57" s="5" t="s">
         <v>19</v>
       </c>
@@ -7072,12 +7078,12 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
@@ -7093,12 +7099,12 @@
     <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
       <c r="I58" s="5" t="s">
         <v>19</v>
       </c>
@@ -7110,12 +7116,12 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="48"/>
-      <c r="U58" s="48"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="48"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
@@ -7131,12 +7137,12 @@
     <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
       <c r="I59" s="8" t="s">
         <v>19</v>
       </c>
@@ -7148,12 +7154,12 @@
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
       <c r="X59" s="8"/>
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
@@ -7169,14 +7175,14 @@
     <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
       <c r="I60" s="12" t="s">
         <v>20</v>
       </c>
@@ -7228,25 +7234,25 @@
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
-      <c r="R61" s="44" t="s">
+      <c r="R61" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
-      <c r="V61" s="44"/>
-      <c r="W61" s="44"/>
-      <c r="X61" s="36" t="s">
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="37"/>
-      <c r="AB61" s="37"/>
-      <c r="AC61" s="37"/>
-      <c r="AD61" s="37"/>
-      <c r="AE61" s="37"/>
-      <c r="AF61" s="38"/>
+      <c r="Y61" s="52"/>
+      <c r="Z61" s="52"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="52"/>
+      <c r="AC61" s="52"/>
+      <c r="AD61" s="52"/>
+      <c r="AE61" s="52"/>
+      <c r="AF61" s="53"/>
       <c r="AG61" s="6"/>
       <c r="AH61" s="7"/>
     </row>
@@ -7296,11 +7302,11 @@
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="50"/>
       <c r="I63" s="8" t="s">
         <v>32</v>
       </c>
@@ -7352,25 +7358,25 @@
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
-      <c r="R64" s="44" t="s">
+      <c r="R64" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="44"/>
-      <c r="X64" s="36" t="s">
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="37"/>
-      <c r="AB64" s="37"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="37"/>
-      <c r="AE64" s="37"/>
-      <c r="AF64" s="38"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="52"/>
+      <c r="AD64" s="52"/>
+      <c r="AE64" s="52"/>
+      <c r="AF64" s="53"/>
       <c r="AG64" s="6"/>
       <c r="AH64" s="7"/>
     </row>
@@ -7420,11 +7426,11 @@
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="41"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
       <c r="I66" s="8" t="s">
         <v>32</v>
       </c>
@@ -7495,12 +7501,12 @@
     <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
       <c r="I68" s="8"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -7602,6 +7608,87 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="X32:AF32"/>
+    <mergeCell ref="X45:AF45"/>
+    <mergeCell ref="X48:AF48"/>
+    <mergeCell ref="X61:AF61"/>
+    <mergeCell ref="X64:AF64"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="I7:AF7"/>
+    <mergeCell ref="I23:AF23"/>
+    <mergeCell ref="I39:AF39"/>
+    <mergeCell ref="I55:AF55"/>
+    <mergeCell ref="X13:AF13"/>
+    <mergeCell ref="X16:AF16"/>
+    <mergeCell ref="X29:AF29"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="R61:W61"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="R64:W64"/>
+    <mergeCell ref="D65:H65"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="R57:W57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="R58:W58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="R59:W59"/>
+    <mergeCell ref="R56:W56"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="R40:W40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="R41:W41"/>
+    <mergeCell ref="R42:W42"/>
+    <mergeCell ref="R43:W43"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R8:W8"/>
+    <mergeCell ref="R9:W9"/>
+    <mergeCell ref="R10:W10"/>
+    <mergeCell ref="R11:W11"/>
+    <mergeCell ref="R13:W13"/>
+    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="D15:H15"/>
     <mergeCell ref="C12:H12"/>
     <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="X4:AA4"/>
@@ -7618,87 +7705,6 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R8:W8"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="R10:W10"/>
-    <mergeCell ref="R11:W11"/>
-    <mergeCell ref="R13:W13"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="R41:W41"/>
-    <mergeCell ref="R42:W42"/>
-    <mergeCell ref="R43:W43"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="R56:W56"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="R40:W40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="R57:W57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="R58:W58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="R59:W59"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="I7:AF7"/>
-    <mergeCell ref="I23:AF23"/>
-    <mergeCell ref="I39:AF39"/>
-    <mergeCell ref="I55:AF55"/>
-    <mergeCell ref="X13:AF13"/>
-    <mergeCell ref="X16:AF16"/>
-    <mergeCell ref="X29:AF29"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="R61:W61"/>
-    <mergeCell ref="D62:H62"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="R64:W64"/>
-    <mergeCell ref="D65:H65"/>
-    <mergeCell ref="X32:AF32"/>
-    <mergeCell ref="X45:AF45"/>
-    <mergeCell ref="X48:AF48"/>
-    <mergeCell ref="X61:AF61"/>
-    <mergeCell ref="X64:AF64"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -7718,7 +7724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC704106-D481-47F4-A276-0FD821CFD954}">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
@@ -7728,162 +7734,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="24" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="24" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="24" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="24" t="s">
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="24" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="24" t="s">
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
@@ -7891,1632 +7897,1632 @@
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="55" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="55" t="s">
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="55" t="s">
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="55" t="s">
+      <c r="U6" s="58"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="57"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="59"/>
       <c r="AH6" s="7"/>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59"/>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="60"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="56"/>
       <c r="AH7" s="7"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="60"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="56"/>
       <c r="AH8" s="7"/>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="60"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="56"/>
       <c r="AH9" s="7"/>
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="60"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="56"/>
       <c r="AH10" s="7"/>
     </row>
     <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="60"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="56"/>
       <c r="AH11" s="7"/>
     </row>
     <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="60"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="56"/>
       <c r="AH12" s="7"/>
     </row>
     <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="60"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="56"/>
       <c r="AH13" s="7"/>
     </row>
     <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="60"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="56"/>
       <c r="AH14" s="7"/>
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="56"/>
       <c r="AH15" s="7"/>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="60"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="55"/>
+      <c r="AF16" s="55"/>
+      <c r="AG16" s="56"/>
       <c r="AH16" s="7"/>
     </row>
     <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="60"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="56"/>
       <c r="AH17" s="7"/>
     </row>
     <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="60"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="56"/>
       <c r="AH18" s="7"/>
     </row>
     <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="60"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="56"/>
       <c r="AH19" s="7"/>
     </row>
     <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="60"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="56"/>
       <c r="AH20" s="7"/>
     </row>
     <row r="21" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="60"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="56"/>
       <c r="AH21" s="7"/>
     </row>
     <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="60"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="56"/>
       <c r="AH22" s="7"/>
     </row>
     <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="60"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="56"/>
       <c r="AH23" s="7"/>
     </row>
     <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="60"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="56"/>
       <c r="AH24" s="7"/>
     </row>
     <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="60"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="56"/>
       <c r="AH25" s="7"/>
     </row>
     <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="60"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="55"/>
+      <c r="AF26" s="55"/>
+      <c r="AG26" s="56"/>
       <c r="AH26" s="7"/>
     </row>
     <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="60"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+      <c r="AF27" s="55"/>
+      <c r="AG27" s="56"/>
       <c r="AH27" s="7"/>
     </row>
     <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="60"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="55"/>
+      <c r="AF28" s="55"/>
+      <c r="AG28" s="56"/>
       <c r="AH28" s="7"/>
     </row>
     <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="60"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="56"/>
       <c r="AH29" s="7"/>
     </row>
     <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="60"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="56"/>
       <c r="AH30" s="7"/>
     </row>
     <row r="31" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="60"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="54"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="56"/>
       <c r="AH31" s="7"/>
     </row>
     <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="60"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="60"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="56"/>
       <c r="AH32" s="7"/>
     </row>
     <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="60"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="56"/>
       <c r="AH33" s="7"/>
     </row>
     <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="60"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
+      <c r="AD34" s="55"/>
+      <c r="AE34" s="55"/>
+      <c r="AF34" s="55"/>
+      <c r="AG34" s="56"/>
       <c r="AH34" s="7"/>
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="60"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="55"/>
+      <c r="AD35" s="55"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="55"/>
+      <c r="AG35" s="56"/>
       <c r="AH35" s="7"/>
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="60"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="56"/>
       <c r="AH36" s="7"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="58"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="60"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="55"/>
+      <c r="AA37" s="55"/>
+      <c r="AB37" s="55"/>
+      <c r="AC37" s="55"/>
+      <c r="AD37" s="55"/>
+      <c r="AE37" s="55"/>
+      <c r="AF37" s="55"/>
+      <c r="AG37" s="56"/>
       <c r="AH37" s="7"/>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="58"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="60"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="55"/>
+      <c r="AB38" s="55"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="56"/>
       <c r="AH38" s="7"/>
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="60"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="55"/>
+      <c r="AB39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="56"/>
       <c r="AH39" s="7"/>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="60"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
+      <c r="AA40" s="55"/>
+      <c r="AB40" s="55"/>
+      <c r="AC40" s="55"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="56"/>
       <c r="AH40" s="7"/>
     </row>
     <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="58"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="60"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="55"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="55"/>
+      <c r="AA41" s="55"/>
+      <c r="AB41" s="55"/>
+      <c r="AC41" s="55"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="55"/>
+      <c r="AG41" s="56"/>
       <c r="AH41" s="7"/>
     </row>
     <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="59"/>
-      <c r="AD42" s="59"/>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="60"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="56"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="55"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="55"/>
+      <c r="AA42" s="55"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="55"/>
+      <c r="AD42" s="55"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="55"/>
+      <c r="AG42" s="56"/>
       <c r="AH42" s="7"/>
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="60"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="59"/>
-      <c r="AC43" s="59"/>
-      <c r="AD43" s="59"/>
-      <c r="AE43" s="59"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="60"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="56"/>
+      <c r="W43" s="54"/>
+      <c r="X43" s="55"/>
+      <c r="Y43" s="55"/>
+      <c r="Z43" s="55"/>
+      <c r="AA43" s="55"/>
+      <c r="AB43" s="55"/>
+      <c r="AC43" s="55"/>
+      <c r="AD43" s="55"/>
+      <c r="AE43" s="55"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="56"/>
       <c r="AH43" s="7"/>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="60"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="58"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="59"/>
-      <c r="AC44" s="59"/>
-      <c r="AD44" s="59"/>
-      <c r="AE44" s="59"/>
-      <c r="AF44" s="59"/>
-      <c r="AG44" s="60"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="55"/>
+      <c r="Y44" s="55"/>
+      <c r="Z44" s="55"/>
+      <c r="AA44" s="55"/>
+      <c r="AB44" s="55"/>
+      <c r="AC44" s="55"/>
+      <c r="AD44" s="55"/>
+      <c r="AE44" s="55"/>
+      <c r="AF44" s="55"/>
+      <c r="AG44" s="56"/>
       <c r="AH44" s="7"/>
     </row>
     <row r="45" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="60"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="59"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="60"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="55"/>
+      <c r="Y45" s="55"/>
+      <c r="Z45" s="55"/>
+      <c r="AA45" s="55"/>
+      <c r="AB45" s="55"/>
+      <c r="AC45" s="55"/>
+      <c r="AD45" s="55"/>
+      <c r="AE45" s="55"/>
+      <c r="AF45" s="55"/>
+      <c r="AG45" s="56"/>
       <c r="AH45" s="7"/>
     </row>
     <row r="46" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="60"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="60"/>
-      <c r="W46" s="58"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="59"/>
-      <c r="AC46" s="59"/>
-      <c r="AD46" s="59"/>
-      <c r="AE46" s="59"/>
-      <c r="AF46" s="59"/>
-      <c r="AG46" s="60"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="56"/>
       <c r="AH46" s="7"/>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="60"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="58"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="58"/>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="59"/>
-      <c r="AB47" s="59"/>
-      <c r="AC47" s="59"/>
-      <c r="AD47" s="59"/>
-      <c r="AE47" s="59"/>
-      <c r="AF47" s="59"/>
-      <c r="AG47" s="60"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="56"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="55"/>
+      <c r="AC47" s="55"/>
+      <c r="AD47" s="55"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="55"/>
+      <c r="AG47" s="56"/>
       <c r="AH47" s="7"/>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="59"/>
-      <c r="V48" s="60"/>
-      <c r="W48" s="58"/>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="59"/>
-      <c r="Z48" s="59"/>
-      <c r="AA48" s="59"/>
-      <c r="AB48" s="59"/>
-      <c r="AC48" s="59"/>
-      <c r="AD48" s="59"/>
-      <c r="AE48" s="59"/>
-      <c r="AF48" s="59"/>
-      <c r="AG48" s="60"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="54"/>
+      <c r="X48" s="55"/>
+      <c r="Y48" s="55"/>
+      <c r="Z48" s="55"/>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="55"/>
+      <c r="AC48" s="55"/>
+      <c r="AD48" s="55"/>
+      <c r="AE48" s="55"/>
+      <c r="AF48" s="55"/>
+      <c r="AG48" s="56"/>
       <c r="AH48" s="7"/>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="59"/>
-      <c r="V49" s="60"/>
-      <c r="W49" s="58"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="59"/>
-      <c r="AA49" s="59"/>
-      <c r="AB49" s="59"/>
-      <c r="AC49" s="59"/>
-      <c r="AD49" s="59"/>
-      <c r="AE49" s="59"/>
-      <c r="AF49" s="59"/>
-      <c r="AG49" s="60"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
+      <c r="AA49" s="55"/>
+      <c r="AB49" s="55"/>
+      <c r="AC49" s="55"/>
+      <c r="AD49" s="55"/>
+      <c r="AE49" s="55"/>
+      <c r="AF49" s="55"/>
+      <c r="AG49" s="56"/>
       <c r="AH49" s="7"/>
     </row>
     <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="60"/>
-      <c r="W50" s="58"/>
-      <c r="X50" s="59"/>
-      <c r="Y50" s="59"/>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="59"/>
-      <c r="AB50" s="59"/>
-      <c r="AC50" s="59"/>
-      <c r="AD50" s="59"/>
-      <c r="AE50" s="59"/>
-      <c r="AF50" s="59"/>
-      <c r="AG50" s="60"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="54"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="56"/>
       <c r="AH50" s="7"/>
     </row>
     <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9557,226 +9563,6 @@
     </row>
   </sheetData>
   <mergeCells count="238">
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="N49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:AG49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="N50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:AG50"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="N47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:AG47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:AG48"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:AG45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="N46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:AG46"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="N43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:AG43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:AG44"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:AG41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:AG42"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:AG39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:AG40"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:AG37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:AG38"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:AG35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="W36:AG36"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="W33:AG33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="W34:AG34"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:AG31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:AG32"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:AG29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:AG30"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="W27:AG27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:AG28"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:AG25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:AG26"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:AG23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:AG24"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:AG21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:AG22"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="W19:AG19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="W20:AG20"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:AG17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:AG18"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:AG15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:AG16"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:AG13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:AG14"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:AG11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:AG12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:AG9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:AG10"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:AG7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:AG8"/>
     <mergeCell ref="Q4:W4"/>
     <mergeCell ref="X4:AA4"/>
     <mergeCell ref="AB4:AH4"/>
@@ -9795,6 +9581,226 @@
     <mergeCell ref="X3:AA3"/>
     <mergeCell ref="AB3:AH3"/>
     <mergeCell ref="M4:P4"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:AG7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:AG8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:AG9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:AG10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:AG11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:AG12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:AG13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:AG14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:AG15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:AG16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:AG17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:AG18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="W19:AG19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="W20:AG20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:AG21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:AG22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:AG23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:AG24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:AG25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:AG26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="W27:AG27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:AG28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:AG29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:AG30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:AG31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:AG32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="W33:AG33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="W34:AG34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:AG35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="W36:AG36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:AG37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:AG38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:AG39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:AG40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:AG41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:AG42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:AG43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:AG44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:AG45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="N46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:AG46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="N47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:AG47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:AG48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="N49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:AG49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="N50:S50"/>
+    <mergeCell ref="T50:V50"/>
+    <mergeCell ref="W50:AG50"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
